--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1982.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1982.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237401293312179</v>
+        <v>0.8102118372917175</v>
       </c>
       <c r="B1">
-        <v>2.276537121520442</v>
+        <v>1.016561627388</v>
       </c>
       <c r="C1">
-        <v>8.56221997128619</v>
+        <v>1.468266248703003</v>
       </c>
       <c r="D1">
-        <v>2.536316760573232</v>
+        <v>4.624202728271484</v>
       </c>
       <c r="E1">
-        <v>1.14433056018333</v>
+        <v>3.954318761825562</v>
       </c>
     </row>
   </sheetData>
